--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H2">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I2">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J2">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N2">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O2">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P2">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q2">
-        <v>20.09446648167255</v>
+        <v>9.200187184027664</v>
       </c>
       <c r="R2">
-        <v>180.850198335053</v>
+        <v>82.80168465624899</v>
       </c>
       <c r="S2">
-        <v>0.001388244992770197</v>
+        <v>0.000494399732987572</v>
       </c>
       <c r="T2">
-        <v>0.001517462015309376</v>
+        <v>0.0005178168850361699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H3">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I3">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J3">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P3">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q3">
-        <v>30.32024217329144</v>
+        <v>17.23931863379033</v>
       </c>
       <c r="R3">
-        <v>272.882179559623</v>
+        <v>155.153867704113</v>
       </c>
       <c r="S3">
-        <v>0.002094702261194251</v>
+        <v>0.0009264066435768275</v>
       </c>
       <c r="T3">
-        <v>0.002289675908286247</v>
+        <v>0.0009702857231636591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H4">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I4">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J4">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N4">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O4">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P4">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q4">
-        <v>142.9756292752501</v>
+        <v>98.56448109700231</v>
       </c>
       <c r="R4">
-        <v>1286.780663477251</v>
+        <v>887.0803298730209</v>
       </c>
       <c r="S4">
-        <v>0.009877604942164806</v>
+        <v>0.005296658878964609</v>
       </c>
       <c r="T4">
-        <v>0.01079700656586373</v>
+        <v>0.005547534148594636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H5">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I5">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J5">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N5">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O5">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P5">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q5">
-        <v>20.36448789349616</v>
+        <v>10.732250339732</v>
       </c>
       <c r="R5">
-        <v>122.186927360977</v>
+        <v>64.393502038392</v>
       </c>
       <c r="S5">
-        <v>0.001406899674308856</v>
+        <v>0.0005767297551870467</v>
       </c>
       <c r="T5">
-        <v>0.001025235375712114</v>
+        <v>0.0004026976356884298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H6">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I6">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J6">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N6">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O6">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P6">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q6">
-        <v>107.9052492217127</v>
+        <v>132.8632697878776</v>
       </c>
       <c r="R6">
-        <v>971.1472429954141</v>
+        <v>1195.769428090899</v>
       </c>
       <c r="S6">
-        <v>0.007454734967076087</v>
+        <v>0.00713980746185489</v>
       </c>
       <c r="T6">
-        <v>0.008148617287041878</v>
+        <v>0.007477983123725996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J7">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N7">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O7">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P7">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q7">
-        <v>695.8725731476696</v>
+        <v>560.3539945509956</v>
       </c>
       <c r="R7">
-        <v>6262.853158329027</v>
+        <v>5043.18595095896</v>
       </c>
       <c r="S7">
-        <v>0.04807500692588464</v>
+        <v>0.03011230747190616</v>
       </c>
       <c r="T7">
-        <v>0.052549800125835</v>
+        <v>0.03153857135425637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J8">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P8">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q8">
         <v>1049.991795444406</v>
@@ -948,10 +948,10 @@
         <v>9449.926158999659</v>
       </c>
       <c r="S8">
-        <v>0.07253966428046012</v>
+        <v>0.05642446755953903</v>
       </c>
       <c r="T8">
-        <v>0.07929161331188321</v>
+        <v>0.05909700204518392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J9">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N9">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O9">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P9">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q9">
-        <v>4951.254572094233</v>
+        <v>6003.247499076674</v>
       </c>
       <c r="R9">
-        <v>44561.2911488481</v>
+        <v>54029.22749169006</v>
       </c>
       <c r="S9">
-        <v>0.3420620484703829</v>
+        <v>0.3226025624516133</v>
       </c>
       <c r="T9">
-        <v>0.3739009815529328</v>
+        <v>0.3378825732447959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J10">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N10">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O10">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P10">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q10">
-        <v>705.2234307492905</v>
+        <v>653.6670643865481</v>
       </c>
       <c r="R10">
-        <v>4231.340584495743</v>
+        <v>3922.002386319289</v>
       </c>
       <c r="S10">
-        <v>0.04872101966055451</v>
+        <v>0.03512676597021155</v>
       </c>
       <c r="T10">
-        <v>0.03550396222907952</v>
+        <v>0.02452702583551855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J11">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N11">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O11">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P11">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q11">
-        <v>3736.765218451515</v>
+        <v>8092.277088013646</v>
       </c>
       <c r="R11">
-        <v>33630.88696606363</v>
+        <v>72830.49379212281</v>
       </c>
       <c r="S11">
-        <v>0.2581579166784309</v>
+        <v>0.4348628513255869</v>
       </c>
       <c r="T11">
-        <v>0.282187102817643</v>
+        <v>0.4554600499693696</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H12">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I12">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J12">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N12">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O12">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P12">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q12">
-        <v>4.404763339633222</v>
+        <v>3.266534373867555</v>
       </c>
       <c r="R12">
-        <v>39.642870056699</v>
+        <v>29.398809364808</v>
       </c>
       <c r="S12">
-        <v>0.000304307191044894</v>
+        <v>0.0001755370504894271</v>
       </c>
       <c r="T12">
-        <v>0.0003326319243368306</v>
+        <v>0.0001838513304681679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H13">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I13">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J13">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P13">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q13">
-        <v>6.646282014778778</v>
+        <v>6.120834910521777</v>
       </c>
       <c r="R13">
-        <v>59.816538133009</v>
+        <v>55.087514194696</v>
       </c>
       <c r="S13">
-        <v>0.0004591646031493578</v>
+        <v>0.0003289214757148223</v>
       </c>
       <c r="T13">
-        <v>0.0005019033727349401</v>
+        <v>0.0003445007806677578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H14">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I14">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J14">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N14">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O14">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P14">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q14">
-        <v>31.34065842788144</v>
+        <v>34.9954038005591</v>
       </c>
       <c r="R14">
-        <v>282.065925850933</v>
+        <v>314.958634205032</v>
       </c>
       <c r="S14">
-        <v>0.002165198671599966</v>
+        <v>0.00188058329126455</v>
       </c>
       <c r="T14">
-        <v>0.002366734082861664</v>
+        <v>0.001969656771554439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H15">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I15">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J15">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N15">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O15">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P15">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q15">
-        <v>4.463952789465167</v>
+        <v>3.810494715210667</v>
       </c>
       <c r="R15">
-        <v>26.783716736791</v>
+        <v>22.862968291264</v>
       </c>
       <c r="S15">
-        <v>0.00030839634949202</v>
+        <v>0.0002047683956932243</v>
       </c>
       <c r="T15">
-        <v>0.0002247344661551787</v>
+        <v>0.0001429781419594532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H16">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I16">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J16">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N16">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O16">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P16">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q16">
-        <v>23.65313288408467</v>
+        <v>47.17321822973422</v>
       </c>
       <c r="R16">
-        <v>212.878195956762</v>
+        <v>424.558964067608</v>
       </c>
       <c r="S16">
-        <v>0.00163409878633043</v>
+        <v>0.002534994781131719</v>
       </c>
       <c r="T16">
-        <v>0.001786199734509004</v>
+        <v>0.002655064340784285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H17">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I17">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J17">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N17">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O17">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P17">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q17">
-        <v>177.497530728414</v>
+        <v>61.83015445655965</v>
       </c>
       <c r="R17">
-        <v>1064.985184370484</v>
+        <v>370.9809267393579</v>
       </c>
       <c r="S17">
-        <v>0.01226258276065884</v>
+        <v>0.003322629338126248</v>
       </c>
       <c r="T17">
-        <v>0.008935984472383232</v>
+        <v>0.002320003375408476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H18">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I18">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J18">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.753537</v>
       </c>
       <c r="O18">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P18">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q18">
-        <v>267.823389178074</v>
+        <v>115.8573964346743</v>
       </c>
       <c r="R18">
-        <v>1606.940335068444</v>
+        <v>695.1443786080459</v>
       </c>
       <c r="S18">
-        <v>0.0185028290904023</v>
+        <v>0.006225945702646262</v>
       </c>
       <c r="T18">
-        <v>0.01348337431633467</v>
+        <v>0.004347224314041255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H19">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I19">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J19">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N19">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O19">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P19">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q19">
-        <v>1262.925849454338</v>
+        <v>662.4057715628303</v>
       </c>
       <c r="R19">
-        <v>7577.555096726027</v>
+        <v>3974.434629376981</v>
       </c>
       <c r="S19">
-        <v>0.08725041236322989</v>
+        <v>0.03559636668682643</v>
       </c>
       <c r="T19">
-        <v>0.06358108608149091</v>
+        <v>0.02485492134740709</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H20">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I20">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J20">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N20">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O20">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P20">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q20">
-        <v>179.882671627089</v>
+        <v>72.12643426691601</v>
       </c>
       <c r="R20">
-        <v>719.530686508356</v>
+        <v>288.505737067664</v>
       </c>
       <c r="S20">
-        <v>0.01242736244827369</v>
+        <v>0.003875930905494684</v>
       </c>
       <c r="T20">
-        <v>0.006037375107563155</v>
+        <v>0.00180422829201661</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H21">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I21">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J21">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N21">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O21">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P21">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q21">
-        <v>953.1437576089321</v>
+        <v>892.9118862766096</v>
       </c>
       <c r="R21">
-        <v>5718.862545653593</v>
+        <v>5357.471317659658</v>
       </c>
       <c r="S21">
-        <v>0.06584882709364843</v>
+        <v>0.04798330613566108</v>
       </c>
       <c r="T21">
-        <v>0.04798533130567641</v>
+        <v>0.03350401771290269</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H22">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I22">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J22">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.99123566666667</v>
+        <v>8.850733666666665</v>
       </c>
       <c r="N22">
-        <v>32.973707</v>
+        <v>26.552201</v>
       </c>
       <c r="O22">
-        <v>0.06247112414817082</v>
+        <v>0.03425243510433672</v>
       </c>
       <c r="P22">
-        <v>0.06381790718517789</v>
+        <v>0.03471479367970558</v>
       </c>
       <c r="Q22">
-        <v>6.383097829747888</v>
+        <v>2.745943070327888</v>
       </c>
       <c r="R22">
-        <v>57.44788046773099</v>
+        <v>24.713487632951</v>
       </c>
       <c r="S22">
-        <v>0.0004409822778122472</v>
+        <v>0.0001475615108273105</v>
       </c>
       <c r="T22">
-        <v>0.0004820286473134525</v>
+        <v>0.0001545507345363994</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H23">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I23">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J23">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>49.753537</v>
       </c>
       <c r="O23">
-        <v>0.09426175184784684</v>
+        <v>0.06418224226698629</v>
       </c>
       <c r="P23">
-        <v>0.09629389277948987</v>
+        <v>0.06504861016194469</v>
       </c>
       <c r="Q23">
-        <v>9.63136155868011</v>
+        <v>5.145350479587444</v>
       </c>
       <c r="R23">
-        <v>86.68225402812099</v>
+        <v>46.308154316287</v>
       </c>
       <c r="S23">
-        <v>0.0006653916126408208</v>
+        <v>0.0002765008855093593</v>
       </c>
       <c r="T23">
-        <v>0.0007273258702507973</v>
+        <v>0.0002895972988881007</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H24">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I24">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J24">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>78.20455633333331</v>
+        <v>94.82067633333332</v>
       </c>
       <c r="N24">
-        <v>234.613669</v>
+        <v>284.462029</v>
       </c>
       <c r="O24">
-        <v>0.4444929301687812</v>
+        <v>0.3669570438989389</v>
       </c>
       <c r="P24">
-        <v>0.4540755260734272</v>
+        <v>0.3719104358409092</v>
       </c>
       <c r="Q24">
-        <v>45.41685293143077</v>
+        <v>29.41814643930878</v>
       </c>
       <c r="R24">
-        <v>408.7516763828769</v>
+        <v>264.763317953779</v>
       </c>
       <c r="S24">
-        <v>0.00313766572140368</v>
+        <v>0.001580872590270095</v>
       </c>
       <c r="T24">
-        <v>0.003429717790278056</v>
+        <v>0.001655750328557115</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H25">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I25">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J25">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.1389315</v>
+        <v>10.324604</v>
       </c>
       <c r="N25">
-        <v>22.277863</v>
+        <v>20.649208</v>
       </c>
       <c r="O25">
-        <v>0.06331058615409581</v>
+        <v>0.03995632924983982</v>
       </c>
       <c r="P25">
-        <v>0.04311697781563077</v>
+        <v>0.02699712145781534</v>
       </c>
       <c r="Q25">
-        <v>6.468871348013167</v>
+        <v>3.203211832534667</v>
       </c>
       <c r="R25">
-        <v>38.813228088079</v>
+        <v>19.219270995208</v>
       </c>
       <c r="S25">
-        <v>0.0004469080214667333</v>
+        <v>0.0001721342232533221</v>
       </c>
       <c r="T25">
-        <v>0.0003256706371207948</v>
+        <v>0.0001201915526322995</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H26">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I26">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J26">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.02182200000001</v>
+        <v>127.8166836666667</v>
       </c>
       <c r="N26">
-        <v>177.065466</v>
+        <v>383.450051</v>
       </c>
       <c r="O26">
-        <v>0.3354636076811054</v>
+        <v>0.4946519494798983</v>
       </c>
       <c r="P26">
-        <v>0.3426956961462742</v>
+        <v>0.5013290388596253</v>
       </c>
       <c r="Q26">
-        <v>34.27658866950867</v>
+        <v>39.65516871314455</v>
       </c>
       <c r="R26">
-        <v>308.489298025578</v>
+        <v>356.896518418301</v>
       </c>
       <c r="S26">
-        <v>0.002368030155619658</v>
+        <v>0.002130989775663768</v>
       </c>
       <c r="T26">
-        <v>0.00258844500140388</v>
+        <v>0.002231923712842857</v>
       </c>
     </row>
   </sheetData>
